--- a/Team-Data/2014-15/2-10-2014-15.xlsx
+++ b/Team-Data/2014-15/2-10-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -771,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,10 +1056,10 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1001,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404</v>
+        <v>0.412</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1057,22 +1124,22 @@
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N4" t="n">
         <v>0.321</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
@@ -1081,10 +1148,10 @@
         <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1096,19 +1163,19 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>19.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1141,10 +1208,10 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1159,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.423</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R5" t="n">
         <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
         <v>20.3</v>
@@ -1269,10 +1336,10 @@
         <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
@@ -1284,25 +1351,25 @@
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1323,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1335,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
         <v>83.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1427,34 +1494,34 @@
         <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T6" t="n">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1463,25 +1530,25 @@
         <v>18.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1493,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1529,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
         <v>1</v>
@@ -1541,13 +1608,13 @@
         <v>1</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1684,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1711,13 +1778,13 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.648</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,7 +1843,7 @@
         <v>40.2</v>
       </c>
       <c r="J8" t="n">
-        <v>86.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.466</v>
@@ -1785,40 +1852,40 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
@@ -1830,13 +1897,13 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
@@ -1848,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,16 +1930,16 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP8" t="n">
         <v>20</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>15</v>
@@ -1881,10 +1948,10 @@
         <v>14</v>
       </c>
       <c r="AS8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT8" t="n">
         <v>20</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1899,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.377</v>
+        <v>0.365</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
         <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2009,40 +2076,40 @@
         <v>23.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>3</v>
       </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>6</v>
-      </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
@@ -2051,25 +2118,25 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT9" t="n">
         <v>5</v>
       </c>
-      <c r="AS9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>6</v>
-      </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>12</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.396</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,34 +2207,34 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.429</v>
       </c>
       <c r="L10" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.712</v>
+        <v>0.707</v>
       </c>
       <c r="R10" t="n">
         <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T10" t="n">
         <v>45.4</v>
@@ -2176,7 +2243,7 @@
         <v>21.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.8</v>
@@ -2185,7 +2252,7 @@
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
         <v>18.9</v>
@@ -2194,16 +2261,16 @@
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -2212,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
@@ -2227,13 +2294,13 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2409,19 +2476,19 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>21</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2445,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -2501,49 +2568,49 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N12" t="n">
         <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
         <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V12" t="n">
         <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>102.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2579,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
@@ -2630,10 +2697,10 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -2749,25 +2816,25 @@
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2800,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2818,10 +2885,10 @@
         <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -2934,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3047,43 +3114,43 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3146,40 +3213,40 @@
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
       </c>
       <c r="AW15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AX15" t="n">
-        <v>22</v>
-      </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
@@ -3235,16 +3302,16 @@
         <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L16" t="n">
         <v>5.4</v>
       </c>
       <c r="M16" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
         <v>18.5</v>
@@ -3253,28 +3320,28 @@
         <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
         <v>5.1</v>
@@ -3283,16 +3350,16 @@
         <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC16" t="n">
         <v>5.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3319,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>20</v>
@@ -3349,10 +3416,10 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
@@ -3507,13 +3574,13 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3719,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,10 +3917,10 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3880,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3895,13 +3962,13 @@
         <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.51</v>
+        <v>0.519</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
         <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,10 +4105,10 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
         <v>14</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,28 +4126,28 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>30</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4253,10 +4320,10 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>1.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -4405,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>10</v>
@@ -4444,19 +4511,19 @@
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.296</v>
+        <v>0.291</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.358</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.3</v>
@@ -4530,16 +4597,16 @@
         <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,10 +4615,10 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,10 +4627,10 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
@@ -4581,16 +4648,16 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.537</v>
+        <v>0.547</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4873,37 +4940,37 @@
         <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
         <v>26.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
         <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4912,25 +4979,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.9</v>
+        <v>105.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,13 +5009,13 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4960,10 +5027,10 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4975,16 +5042,16 @@
         <v>19</v>
       </c>
       <c r="AS25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT25" t="n">
         <v>19</v>
       </c>
-      <c r="AT25" t="n">
-        <v>20</v>
-      </c>
       <c r="AU25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV25" t="n">
         <v>22</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>23</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4999,10 +5066,10 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.353</v>
+        <v>0.36</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.451</v>
@@ -5243,19 +5310,19 @@
         <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="O27" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
         <v>29.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.773</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
         <v>10.8</v>
@@ -5273,34 +5340,34 @@
         <v>16.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.1</v>
+        <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5315,16 +5382,16 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>15</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5351,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.627</v>
+        <v>0.635</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
@@ -5416,49 +5483,49 @@
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5476,28 +5543,28 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,25 +5573,25 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5539,16 +5606,16 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5670,13 +5737,13 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>9</v>
@@ -5724,13 +5791,13 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF30" t="n">
         <v>23</v>
       </c>
-      <c r="AF30" t="n">
-        <v>22</v>
-      </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>18</v>
@@ -5897,7 +5964,7 @@
         <v>25</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5906,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
@@ -5915,7 +5982,7 @@
         <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
@@ -6070,13 +6137,13 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-10-2014-15</t>
+          <t>2015-02-10</t>
         </is>
       </c>
     </row>
